--- a/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/BackboneColumn.xlsx
+++ b/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/BackboneColumn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WebDatabase\WebDataWorld\LabDatabase\static\LabDatabase\DownloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13205EEC-AE15-418E-9896-ACEC380ACE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EFA04-5F4D-4913-AEB3-11A906D81477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2085" windowWidth="15750" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="3645" windowWidth="19695" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/BackboneColumn.xlsx
+++ b/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/BackboneColumn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WebDatabase\WebDataWorld\LabDatabase\static\LabDatabase\DownloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EFA04-5F4D-4913-AEB3-11A906D81477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994DF19-94A6-44B3-AF5C-F223610690D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3645" windowWidth="19695" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="4440" windowWidth="19695" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
